--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2206211.109913439</v>
+        <v>-2208825.38852989</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>89.86207221212021</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>116.6434613069907</v>
+        <v>411.2146126744141</v>
       </c>
       <c r="H2" t="n">
         <v>297.6072935907341</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851265</v>
+        <v>52.8684566485127</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.0186029205788</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>91.1103483761872</v>
       </c>
       <c r="I3" t="n">
-        <v>14.08691327674309</v>
+        <v>14.08691327674312</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>79.81677454004611</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>10.49047786238835</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.8394318079292</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>192.0586035981866</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.1102960603998</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>125.0816591241462</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>49.87943354460261</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -953,16 +953,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>56.97227283338371</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,10 +1114,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>49.68400593664609</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>395.0105722178074</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>181.2290365055936</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>77.06300304438639</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>226.491298959833</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.02919805176072</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671011667</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>8.616048582075457</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>247.9252424950644</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>21.90286287505398</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>86.90598908794072</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2290,10 +2290,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.955370467302</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>102.1557845699812</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>18.16423677622419</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545292</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.9811888265264</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1669.421363468995</v>
+        <v>1277.78932919306</v>
       </c>
       <c r="C2" t="n">
-        <v>1300.458846528583</v>
+        <v>1187.019559281827</v>
       </c>
       <c r="D2" t="n">
-        <v>942.1931479218329</v>
+        <v>828.753860675077</v>
       </c>
       <c r="E2" t="n">
-        <v>942.1931479218329</v>
+        <v>828.753860675077</v>
       </c>
       <c r="F2" t="n">
-        <v>531.2072431322254</v>
+        <v>828.753860675077</v>
       </c>
       <c r="G2" t="n">
-        <v>413.3855650443555</v>
+        <v>413.3855650443556</v>
       </c>
       <c r="H2" t="n">
         <v>112.7721371749273</v>
       </c>
       <c r="I2" t="n">
-        <v>59.36965571178314</v>
+        <v>59.36965571178312</v>
       </c>
       <c r="J2" t="n">
         <v>223.6389510734989</v>
       </c>
       <c r="K2" t="n">
-        <v>520.5745606447431</v>
+        <v>520.574560644744</v>
       </c>
       <c r="L2" t="n">
-        <v>925.8512030185016</v>
+        <v>925.8512030185021</v>
       </c>
       <c r="M2" t="n">
-        <v>1408.468993552356</v>
+        <v>1408.468993552357</v>
       </c>
       <c r="N2" t="n">
         <v>1903.509852877247</v>
@@ -4352,28 +4352,28 @@
         <v>2927.679802719471</v>
       </c>
       <c r="R2" t="n">
-        <v>2968.482785589157</v>
+        <v>2968.482785589156</v>
       </c>
       <c r="S2" t="n">
-        <v>2851.450538338331</v>
+        <v>2851.45053833833</v>
       </c>
       <c r="T2" t="n">
         <v>2644.177727152598</v>
       </c>
       <c r="U2" t="n">
-        <v>2390.623582788377</v>
+        <v>2390.623582788376</v>
       </c>
       <c r="V2" t="n">
-        <v>2059.560695444807</v>
+        <v>2390.623582788376</v>
       </c>
       <c r="W2" t="n">
-        <v>2059.560695444807</v>
+        <v>2037.854927518262</v>
       </c>
       <c r="X2" t="n">
-        <v>2059.560695444807</v>
+        <v>1664.389169257182</v>
       </c>
       <c r="Y2" t="n">
-        <v>1669.421363468995</v>
+        <v>1664.389169257182</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3103593400832</v>
+        <v>1341.528820902744</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8573300589562</v>
+        <v>1167.075791621616</v>
       </c>
       <c r="D3" t="n">
-        <v>607.922920397705</v>
+        <v>1018.141381960365</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6854653922495</v>
+        <v>858.9039269549096</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1509074191345</v>
+        <v>712.3693689817945</v>
       </c>
       <c r="G3" t="n">
-        <v>165.6295159672683</v>
+        <v>575.8479775299284</v>
       </c>
       <c r="H3" t="n">
-        <v>73.59886104182667</v>
+        <v>483.8173226044867</v>
       </c>
       <c r="I3" t="n">
-        <v>59.36965571178314</v>
+        <v>469.5881172744432</v>
       </c>
       <c r="J3" t="n">
-        <v>138.3894757148951</v>
+        <v>548.607937277555</v>
       </c>
       <c r="K3" t="n">
-        <v>351.60175891689</v>
+        <v>761.8202204795498</v>
       </c>
       <c r="L3" t="n">
-        <v>684.6145268671326</v>
+        <v>1094.832988429792</v>
       </c>
       <c r="M3" t="n">
-        <v>1092.581588039814</v>
+        <v>1502.800049602473</v>
       </c>
       <c r="N3" t="n">
-        <v>1765.502785324653</v>
+        <v>1935.973429856264</v>
       </c>
       <c r="O3" t="n">
-        <v>2139.552005769183</v>
+        <v>2310.022650300794</v>
       </c>
       <c r="P3" t="n">
-        <v>2420.426415694429</v>
+        <v>2830.644877257089</v>
       </c>
       <c r="Q3" t="n">
-        <v>2558.264324026496</v>
+        <v>2968.482785589156</v>
       </c>
       <c r="R3" t="n">
-        <v>2558.264324026496</v>
+        <v>2968.482785589156</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.886246336681</v>
+        <v>2836.104707899342</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.605221056462</v>
+        <v>2642.823682619122</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.526960290582</v>
+        <v>2414.745421853243</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.374852058839</v>
+        <v>2179.5933136215</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.137495330638</v>
+        <v>1925.355956893298</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.285995125105</v>
+        <v>1717.504456687765</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.525696360151</v>
+        <v>1509.744157922812</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217.879191579417</v>
+        <v>1383.532254945953</v>
       </c>
       <c r="C4" t="n">
-        <v>217.879191579417</v>
+        <v>1383.532254945953</v>
       </c>
       <c r="D4" t="n">
-        <v>217.879191579417</v>
+        <v>1383.532254945953</v>
       </c>
       <c r="E4" t="n">
-        <v>69.96609799702389</v>
+        <v>1383.532254945953</v>
       </c>
       <c r="F4" t="n">
-        <v>59.36965571178314</v>
+        <v>1236.642307448043</v>
       </c>
       <c r="G4" t="n">
-        <v>59.36965571178314</v>
+        <v>1236.642307448043</v>
       </c>
       <c r="H4" t="n">
-        <v>59.36965571178314</v>
+        <v>1236.642307448043</v>
       </c>
       <c r="I4" t="n">
-        <v>59.36965571178314</v>
+        <v>1236.642307448043</v>
       </c>
       <c r="J4" t="n">
-        <v>95.29667538945986</v>
+        <v>1272.56932712572</v>
       </c>
       <c r="K4" t="n">
-        <v>284.1726417778209</v>
+        <v>1461.445293514081</v>
       </c>
       <c r="L4" t="n">
-        <v>581.3952856386278</v>
+        <v>1758.667937374887</v>
       </c>
       <c r="M4" t="n">
-        <v>905.1640129945956</v>
+        <v>2082.436664730855</v>
       </c>
       <c r="N4" t="n">
-        <v>1226.668860094579</v>
+        <v>2403.941511830839</v>
       </c>
       <c r="O4" t="n">
-        <v>1507.614327944344</v>
+        <v>2684.886979680603</v>
       </c>
       <c r="P4" t="n">
-        <v>1724.491028290281</v>
+        <v>2901.76368002654</v>
       </c>
       <c r="Q4" t="n">
-        <v>1791.210133852897</v>
+        <v>2968.482785589156</v>
       </c>
       <c r="R4" t="n">
-        <v>1695.412727986301</v>
+        <v>2968.482785589156</v>
       </c>
       <c r="S4" t="n">
-        <v>1501.414138493184</v>
+        <v>2968.482785589156</v>
       </c>
       <c r="T4" t="n">
-        <v>1279.080506108941</v>
+        <v>2746.149153204914</v>
       </c>
       <c r="U4" t="n">
-        <v>989.9704007202819</v>
+        <v>2457.039047816254</v>
       </c>
       <c r="V4" t="n">
-        <v>735.285912514395</v>
+        <v>2202.354559610367</v>
       </c>
       <c r="W4" t="n">
-        <v>445.8687424774344</v>
+        <v>1912.937389573406</v>
       </c>
       <c r="X4" t="n">
-        <v>217.879191579417</v>
+        <v>1684.947838675389</v>
       </c>
       <c r="Y4" t="n">
-        <v>217.879191579417</v>
+        <v>1464.155259531859</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.299101484276</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C5" t="n">
-        <v>1257.336584543865</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1257.336584543865</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>871.5483319456202</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4565,16 +4565,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4601,16 +4601,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.03827352421</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2012.898941548398</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158138</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>684.4520072430315</v>
+        <v>648.3899067494191</v>
       </c>
       <c r="C7" t="n">
-        <v>515.5158243151246</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="D7" t="n">
-        <v>515.5158243151246</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E7" t="n">
-        <v>367.6027307327315</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F7" t="n">
-        <v>367.6027307327315</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>830.0383715796588</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732712</v>
+        <v>830.0383715796588</v>
       </c>
       <c r="Y7" t="n">
-        <v>866.1004720732712</v>
+        <v>830.0383715796588</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>922.5820433455035</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3032.255520302333</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2701.192632958763</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2701.192632958763</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2327.726874697683</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.726874697683</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>753.0765981364621</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C10" t="n">
-        <v>675.2351809199101</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4990,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1476.748842799602</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1476.748842799602</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.507193008249</v>
+        <v>1187.331672762641</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.517642110232</v>
+        <v>959.3421218646239</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.7250629667018</v>
+        <v>959.3421218646239</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400708</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121639</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578602</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5218,31 +5218,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832668</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487573</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138406</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703105</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="14">
@@ -5273,10 +5273,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
@@ -5285,13 +5285,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345992</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>552.8412329032296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,13 +5434,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1183.271827775017</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>955.2822768769993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.4896977334694</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5510,10 +5510,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400716</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121646</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121646</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121646</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>198.0274703142543</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>198.0274703142543</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189237</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138406</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703113</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5750,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5838,10 +5838,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>954.2476448606603</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>785.3114619327534</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5908,13 +5908,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1135.8961096909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.853600740071</v>
+        <v>802.9288273958737</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121642</v>
+        <v>633.9926444679668</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>483.876005055631</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>335.9629114732379</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138409</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703107</v>
+        <v>984.5772922261134</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C28" t="n">
         <v>782.5512955656816</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
@@ -6403,13 +6403,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6424,7 +6424,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6461,10 +6461,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384026</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6625,7 +6625,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,16 +6643,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6713,13 +6713,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6774,7 +6774,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,28 +6880,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111722</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7023,16 +7023,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7148,52 +7148,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191924</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1652.71788640035</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2204.627616639637</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589157</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2222.001901828444</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345477</v>
@@ -7564,13 +7564,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
         <v>898.265941231132</v>
@@ -7588,28 +7588,28 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,40 +7634,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>454.604838556055</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>949.9304447718135</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718135</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7828,28 +7828,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>242.1695121525737</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>242.1695121525754</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.872575263447146</v>
+        <v>9.872575263447203</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>275.4108195588873</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>294.5711513674235</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>100.0152056418912</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22711,10 +22711,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>134.9305701605429</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.1571872936354</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>94.83943180792923</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>192.0586035981867</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664516</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>208.7894017452128</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194176</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>38.59775584152658</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.3918499711699</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>61.70948393027163</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>46.45968844823112</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>127.2568112467071</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-6.039613253960852e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48691.36674215491</v>
+        <v>48691.3667421549</v>
       </c>
       <c r="C2" t="n">
         <v>61578.13273982125</v>
@@ -26320,19 +26320,19 @@
         <v>61578.13273982125</v>
       </c>
       <c r="E2" t="n">
+        <v>60535.99497675046</v>
+      </c>
+      <c r="F2" t="n">
         <v>60535.99497675045</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>60535.99497675043</v>
+      </c>
+      <c r="H2" t="n">
         <v>60535.99497675044</v>
       </c>
-      <c r="G2" t="n">
-        <v>60535.99497675044</v>
-      </c>
-      <c r="H2" t="n">
-        <v>60535.99497675045</v>
-      </c>
       <c r="I2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675043</v>
       </c>
       <c r="J2" t="n">
         <v>61578.13273982125</v>
@@ -26344,13 +26344,13 @@
         <v>61578.13273982125</v>
       </c>
       <c r="M2" t="n">
+        <v>61578.13273982125</v>
+      </c>
+      <c r="N2" t="n">
+        <v>61578.13273982125</v>
+      </c>
+      <c r="O2" t="n">
         <v>61578.13273982122</v>
-      </c>
-      <c r="N2" t="n">
-        <v>61578.13273982124</v>
-      </c>
-      <c r="O2" t="n">
-        <v>61578.13273982126</v>
       </c>
       <c r="P2" t="n">
         <v>61578.13273982125</v>
@@ -26366,13 +26366,13 @@
         <v>1228620.061871473</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.4934397309</v>
+        <v>95186.49343973132</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213599.1454818041</v>
+        <v>213599.145481804</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.01038359973</v>
+        <v>22978.01038359985</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.7179936317</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14779.83765767047</v>
+        <v>14779.8376576705</v>
       </c>
       <c r="C4" t="n">
         <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678119</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
@@ -26433,28 +26433,28 @@
         <v>10557.08828678123</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678119</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
         <v>18547.94754987467</v>
       </c>
       <c r="K4" t="n">
-        <v>18547.94754987468</v>
+        <v>18547.94754987467</v>
       </c>
       <c r="L4" t="n">
-        <v>18547.94754987468</v>
+        <v>18547.94754987467</v>
       </c>
       <c r="M4" t="n">
-        <v>18547.94754987476</v>
+        <v>18547.94754987466</v>
       </c>
       <c r="N4" t="n">
-        <v>18547.94754987468</v>
+        <v>18547.94754987471</v>
       </c>
       <c r="O4" t="n">
-        <v>18547.94754987473</v>
+        <v>18547.94754987465</v>
       </c>
       <c r="P4" t="n">
         <v>18547.94754987468</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1295625.950107964</v>
+        <v>-1296055.508974552</v>
       </c>
       <c r="C6" t="n">
-        <v>-231286.4243194354</v>
+        <v>-231286.4243194359</v>
       </c>
       <c r="D6" t="n">
-        <v>-136099.9308797045</v>
+        <v>-136099.9308797046</v>
       </c>
       <c r="E6" t="n">
-        <v>-376556.084941293</v>
+        <v>-376590.822866729</v>
       </c>
       <c r="F6" t="n">
-        <v>-51143.62313393787</v>
+        <v>-51178.36105937356</v>
       </c>
       <c r="G6" t="n">
-        <v>-51143.62313393789</v>
+        <v>-51178.3610593736</v>
       </c>
       <c r="H6" t="n">
-        <v>-51143.62313393785</v>
+        <v>-51178.36105937359</v>
       </c>
       <c r="I6" t="n">
-        <v>-51143.62313393789</v>
+        <v>-51178.36105937358</v>
       </c>
       <c r="J6" t="n">
-        <v>-273733.0761457729</v>
+        <v>-273733.0761457728</v>
       </c>
       <c r="K6" t="n">
-        <v>-83111.94104756854</v>
+        <v>-83111.94104756866</v>
       </c>
       <c r="L6" t="n">
-        <v>-60133.93066396883</v>
+        <v>-60133.93066396882</v>
       </c>
       <c r="M6" t="n">
         <v>-145188.9585994807</v>
       </c>
       <c r="N6" t="n">
-        <v>-60133.93066396884</v>
+        <v>-60133.93066396885</v>
       </c>
       <c r="O6" t="n">
-        <v>-79561.64865760063</v>
+        <v>-79561.64865760054</v>
       </c>
       <c r="P6" t="n">
-        <v>-60133.93066396884</v>
+        <v>-60133.93066396891</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="K2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.28464749203974</v>
-      </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1016.921054129329</v>
+        <v>1016.921054129328</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972892</v>
+        <v>742.120696397289</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203963</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.030286966852145e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1016.921054129329</v>
+        <v>1016.921054129328</v>
       </c>
       <c r="C3" t="n">
-        <v>72.85564646396972</v>
+        <v>72.85564646397006</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972892</v>
+        <v>742.120696397289</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28075900500346</v>
+        <v>89.2807590050038</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972892</v>
+        <v>742.120696397289</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500346</v>
+        <v>89.2807590050038</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972892</v>
+        <v>742.120696397289</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500346</v>
+        <v>89.2807590050038</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>257.6521825393344</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>356.9966121971088</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>109.0535354256445</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>236.8389923999449</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>11.86547352390403</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>69.76613545330838</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>90.18381805424144</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>59.72053924577992</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-8.155492408657848e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>4.988010005035903e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.088124840720916</v>
+        <v>4.088124840720915</v>
       </c>
       <c r="H2" t="n">
-        <v>41.86750852503309</v>
+        <v>41.86750852503307</v>
       </c>
       <c r="I2" t="n">
-        <v>157.6074329218933</v>
+        <v>157.6074329218932</v>
       </c>
       <c r="J2" t="n">
-        <v>346.9744857001372</v>
+        <v>346.9744857001371</v>
       </c>
       <c r="K2" t="n">
-        <v>520.0248102078536</v>
+        <v>520.0248102078534</v>
       </c>
       <c r="L2" t="n">
-        <v>645.1367608020665</v>
+        <v>645.1367608020663</v>
       </c>
       <c r="M2" t="n">
-        <v>717.8389509382371</v>
+        <v>717.8389509382367</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419354</v>
+        <v>729.4543356419351</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570167</v>
+        <v>688.8030442570165</v>
       </c>
       <c r="P2" t="n">
-        <v>587.8774622517191</v>
+        <v>587.8774622517188</v>
       </c>
       <c r="Q2" t="n">
-        <v>441.4714913934011</v>
+        <v>441.471491393401</v>
       </c>
       <c r="R2" t="n">
-        <v>256.8006720259355</v>
+        <v>256.8006720259354</v>
       </c>
       <c r="S2" t="n">
-        <v>93.15814480792797</v>
+        <v>93.15814480792793</v>
       </c>
       <c r="T2" t="n">
-        <v>17.89576649025582</v>
+        <v>17.89576649025581</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3270499872576732</v>
+        <v>0.3270499872576731</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.187339625863084</v>
+        <v>2.187339625863083</v>
       </c>
       <c r="H3" t="n">
-        <v>21.12509586030926</v>
+        <v>21.12509586030925</v>
       </c>
       <c r="I3" t="n">
-        <v>75.30971957467199</v>
+        <v>75.30971957467196</v>
       </c>
       <c r="J3" t="n">
-        <v>206.6556266698101</v>
+        <v>206.65562666981</v>
       </c>
       <c r="K3" t="n">
-        <v>353.2073816026368</v>
+        <v>353.2073816026366</v>
       </c>
       <c r="L3" t="n">
-        <v>474.9309130629474</v>
+        <v>474.9309130629472</v>
       </c>
       <c r="M3" t="n">
-        <v>554.221974500484</v>
+        <v>554.2219745004838</v>
       </c>
       <c r="N3" t="n">
-        <v>568.8905810265571</v>
+        <v>568.890581026557</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4237398429593</v>
+        <v>520.4237398429591</v>
       </c>
       <c r="P3" t="n">
-        <v>417.6859325913463</v>
+        <v>417.6859325913462</v>
       </c>
       <c r="Q3" t="n">
-        <v>279.2119845224527</v>
+        <v>279.2119845224526</v>
       </c>
       <c r="R3" t="n">
-        <v>135.8069287005168</v>
+        <v>135.8069287005167</v>
       </c>
       <c r="S3" t="n">
-        <v>40.62887419092174</v>
+        <v>40.62887419092172</v>
       </c>
       <c r="T3" t="n">
-        <v>8.816513667404271</v>
+        <v>8.816513667404267</v>
       </c>
       <c r="U3" t="n">
         <v>0.1439039227541503</v>
@@ -31200,10 +31200,10 @@
         <v>1.833792064823379</v>
       </c>
       <c r="H4" t="n">
-        <v>16.30407853997515</v>
+        <v>16.30407853997514</v>
       </c>
       <c r="I4" t="n">
-        <v>55.14712864032492</v>
+        <v>55.14712864032489</v>
       </c>
       <c r="J4" t="n">
         <v>129.6490989830129</v>
@@ -31212,31 +31212,31 @@
         <v>213.0532962585707</v>
       </c>
       <c r="L4" t="n">
-        <v>272.6348675283777</v>
+        <v>272.6348675283776</v>
       </c>
       <c r="M4" t="n">
         <v>287.4552415795411</v>
       </c>
       <c r="N4" t="n">
-        <v>280.620198428836</v>
+        <v>280.6201984288359</v>
       </c>
       <c r="O4" t="n">
-        <v>259.1981729443083</v>
+        <v>259.1981729443082</v>
       </c>
       <c r="P4" t="n">
-        <v>221.7888148219112</v>
+        <v>221.7888148219111</v>
       </c>
       <c r="Q4" t="n">
         <v>153.5550791735286</v>
       </c>
       <c r="R4" t="n">
-        <v>82.45395956924028</v>
+        <v>82.45395956924025</v>
       </c>
       <c r="S4" t="n">
-        <v>31.95799443878561</v>
+        <v>31.9579944387856</v>
       </c>
       <c r="T4" t="n">
-        <v>7.835293367881709</v>
+        <v>7.835293367881706</v>
       </c>
       <c r="U4" t="n">
         <v>0.100025021717639</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O12" t="n">
-        <v>690.2058188111474</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O15" t="n">
-        <v>677.7372574190229</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>251.886104915025</v>
+        <v>357.9244589488883</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O21" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32786,10 +32786,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33199,7 +33199,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,7 +33266,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>196.3041720119</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,37 +33497,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33734,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>338.1920576279227</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663298</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>485.9276108700249</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,10 +33998,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>195.7502366106283</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817591</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,25 +34445,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>349.3304751113906</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,10 +34472,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>165.9285811734509</v>
+        <v>165.9285811734508</v>
       </c>
       <c r="K2" t="n">
-        <v>299.9349591628731</v>
+        <v>299.9349591628729</v>
       </c>
       <c r="L2" t="n">
-        <v>409.3703458320793</v>
+        <v>409.3703458320791</v>
       </c>
       <c r="M2" t="n">
-        <v>487.4927177109644</v>
+        <v>487.492717710964</v>
       </c>
       <c r="N2" t="n">
-        <v>500.0412720453444</v>
+        <v>500.0412720453442</v>
       </c>
       <c r="O2" t="n">
-        <v>458.70483283533</v>
+        <v>458.7048328353297</v>
       </c>
       <c r="P2" t="n">
-        <v>356.6444664964495</v>
+        <v>356.6444664964493</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.1658015189516</v>
+        <v>219.1658015189515</v>
       </c>
       <c r="R2" t="n">
-        <v>41.21513421180333</v>
+        <v>41.21513421180327</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79.8180000031434</v>
+        <v>79.81800000314334</v>
       </c>
       <c r="K3" t="n">
-        <v>215.3659426282778</v>
+        <v>215.3659426282776</v>
       </c>
       <c r="L3" t="n">
-        <v>336.3765332830732</v>
+        <v>336.376533283073</v>
       </c>
       <c r="M3" t="n">
-        <v>412.0879405784656</v>
+        <v>412.0879405784655</v>
       </c>
       <c r="N3" t="n">
-        <v>679.7183810957976</v>
+        <v>437.5488689432237</v>
       </c>
       <c r="O3" t="n">
-        <v>377.8274953985149</v>
+        <v>377.8274953985147</v>
       </c>
       <c r="P3" t="n">
-        <v>283.7115251770161</v>
+        <v>525.8810373295913</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.2302104364312</v>
+        <v>139.230210436431</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.28991886634012</v>
+        <v>36.28991886634009</v>
       </c>
       <c r="K4" t="n">
-        <v>190.7838044326879</v>
+        <v>190.7838044326878</v>
       </c>
       <c r="L4" t="n">
-        <v>300.2248927886939</v>
+        <v>300.2248927886938</v>
       </c>
       <c r="M4" t="n">
-        <v>327.0391185413817</v>
+        <v>327.0391185413816</v>
       </c>
       <c r="N4" t="n">
-        <v>324.7523708080646</v>
+        <v>324.7523708080645</v>
       </c>
       <c r="O4" t="n">
-        <v>283.783300858348</v>
+        <v>283.7833008583478</v>
       </c>
       <c r="P4" t="n">
         <v>219.0673740868046</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.39303592183423</v>
+        <v>67.39303592183417</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O12" t="n">
-        <v>547.609574366703</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O15" t="n">
-        <v>535.1410129745784</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>120.5443928316917</v>
+        <v>226.582746865555</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O21" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36434,10 +36434,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>44.09163190712619</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295339</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36768,10 +36768,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,7 +36914,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>57.74979223202579</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,10 +36996,10 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
         <v>397.5465471980851</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,10 +37239,10 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
         <v>144.686904791938</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>196.0580237059044</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396436</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>351.9532034556946</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>61.77582919629807</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37953,10 +37953,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367786</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>211.4890361370316</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
